--- a/data/financial_statements/sofp/APH.xlsx
+++ b/data/financial_statements/sofp/APH.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,1621 +599,1657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1434200000</v>
+      </c>
+      <c r="C2">
         <v>1252000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1334400000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1299600000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1241400000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1302500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1242600000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2361200000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1738100000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1456200000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1314000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2383600000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>908600000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>986700000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>997300000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>987600000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1291700000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1019800000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>991100000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1024300000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1753700000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1489600000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1360100000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1279700000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1173200000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1016900000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>824700000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>713600000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1760400000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1597700000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1397200000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1351100000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1329600000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1244617000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1443900000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1299453000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1192200000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1283581000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1142552000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1021902000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>2631300000</v>
+      </c>
+      <c r="C3">
         <v>2640100000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2571600000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2422100000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2454800000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2204500000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2072800000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1931800000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1951600000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1880300000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1658300000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1540500000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1736400000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1689100000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1685000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1661900000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1791800000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1737600000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1627300000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1515800000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1598600000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1575500000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1407300000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1318300000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1349300000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1319400000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1257300000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1201900000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1104600000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1163300000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1089500000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1091800000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1123700000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1092424000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1031071000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>971576000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1001000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>926194000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>905823000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>861598000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2093600000</v>
+      </c>
+      <c r="C4">
         <v>2080100000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2043700000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1989700000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1894100000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1952500000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1771400000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1565100000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1462200000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1391000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1361900000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1325000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1310100000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1273500000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1275300000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1224400000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1233800000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1245500000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1159800000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1166800000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1106900000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1098200000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1059200000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>962300000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>928900000</v>
-      </c>
-      <c r="Z4">
-        <v>926600000</v>
       </c>
       <c r="AA4">
         <v>926600000</v>
       </c>
       <c r="AB4">
+        <v>926600000</v>
+      </c>
+      <c r="AC4">
         <v>933500000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>851800000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>887700000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>893000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>871400000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>865600000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>848072000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>805452000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>772710000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>792600000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>732724000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>703489000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>711581000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>355000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>361000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>397000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>368000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1068200000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1032400000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>329000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>339000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>310000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>284000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>268400000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>256000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>282900000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>264500000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>253600000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>254300000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>278600000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>243200000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>230200000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>196800000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>189600000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>165800000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>162100000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>139800000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>142300000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>149500000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>140600000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>133200000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>213600000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>213100000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>219500000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>133300000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>187459000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>181962000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>160728000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>171800000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>135036000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>122606000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>130590000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>6479100000</v>
+      </c>
+      <c r="C6">
         <v>6326900000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6311000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6108700000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5958200000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6919800000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6491200000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6186700000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5490800000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5037000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4618000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5517500000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4211200000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4232200000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4222100000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4127500000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4571600000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4281500000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4021400000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3937100000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4656000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>4352900000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3992400000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3722400000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3591200000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3405200000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>3158100000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2989600000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3850000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>3862300000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3592800000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3533800000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>3452200000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3372572000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3462385000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3204467000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3157600000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3077535000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2874470000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>2725671000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1204300000</v>
+      </c>
+      <c r="C7">
         <v>1166900000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1155100000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1175000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1175300000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1175400000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1169300000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1076200000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1054600000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1036900000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1001700000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>982400000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>999000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>965200000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>970000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>932000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>875800000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>886400000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>888200000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>839300000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>816800000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>790100000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>769400000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>726900000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>711400000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>717600000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>692800000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>693300000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>609500000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>611700000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>609900000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>589500000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>590700000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>585353000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>558652000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>538715000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>532400000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>441799000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>424844000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>415943000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>50000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>53000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>7180200000</v>
+      </c>
+      <c r="C9">
         <v>7091300000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7026200000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7087500000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7133700000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6443000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6512500000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5503300000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5429600000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5363700000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5283200000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5274400000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5309100000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>5486200000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>5441900000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>5148600000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>4501100000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4574700000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>4600700000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>4627300000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>4531100000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>4465800000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>4411100000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>4258100000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4196100000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>4247000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>4176100000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>4207100000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>2998900000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>3011600000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>3026000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2902300000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2943000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2893844000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2496263000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2487021000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2478000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1972428000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1952251000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1919929000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>462600000</v>
+      </c>
+      <c r="C10">
         <v>512800000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>493800000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>502400000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>411200000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>387900000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>386100000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>367300000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>352300000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>316300000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>301000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>303400000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>296200000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>96400000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>148919000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>152736000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>152418000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>8847100000</v>
+      </c>
+      <c r="C11">
         <v>8771000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8675101000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8764900000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>8720200000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>8006300000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8067900000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6946800000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6836500000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6716900000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6585900000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6560200000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6604300000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>6451400000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>6411900000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>6080600000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5473300000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>5461100000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5488900000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5466600000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5347900000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>5255900000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5180500000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>4985000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>4907500000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>4964600000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>4868900000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4900400000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3608400000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>3623300000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>3635900000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>3491800000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>3533700000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>3479197000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>3054915000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>3025736000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3010400000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>2563146000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2529831000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>2488290000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>15326200000</v>
+      </c>
+      <c r="C12">
         <v>15097900000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>14986100000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>14873600000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>14678400000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14926100000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>14559100000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>13133500000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>12327300000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11753900000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>11203900000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>12077700000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>10815500000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>10683600000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>10634000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>10208100000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>10044900000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9742600000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>9510300000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>9403700000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>10003900000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>9608800000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>9172900000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>8707400000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>8498700000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>8369800000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>8027000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>7890000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>7458400000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>7485600000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>7228700000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>7025600000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>6985900000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>6851769000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>6517300000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>6230203000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>6168000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>5640681000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>5404301000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>5213961000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1309100000</v>
+      </c>
+      <c r="C13">
         <v>1393600000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1372900000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1275900000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1312000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1300000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1204700000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1070700000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1120700000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1075900000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>928000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>817200000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>866800000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>830700000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>814600000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>797100000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>890500000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1014000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>903100000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>798200000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>875600000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>826800000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>769900000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>682400000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>678200000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>650700000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>645100000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>615400000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>587800000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>661500000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>559500000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>582900000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>618400000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>599754000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>534381000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>479786000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>549900000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>481022000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>447159000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>445517000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>711100000</v>
+      </c>
+      <c r="C14">
         <v>488000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>438900000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>391800000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>486000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>311600000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>313000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>407900000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>377800000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>263800000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>253600000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>234300000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>246200000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>234400000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>228000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>219500000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>429400000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>230400000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>220400000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>198700000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>363900000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>201300000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>190100000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>172100000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>306200000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>175400000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>168300000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>165000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>148800000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>151800000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>144600000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>99000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>148600000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>109953000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>139125000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>131096000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>104900000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>121920000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>84591000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>83161000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>2700000</v>
+      </c>
+      <c r="C15">
         <v>2900000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>28100000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>23700000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>298700000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>526100000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>526400000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>230300000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>229200000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2300000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>500900000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>403300000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>403700000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>403100000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>764300000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>790200000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>768400000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>749900000</v>
-      </c>
-      <c r="U15">
-        <v>1100000</v>
       </c>
       <c r="V15">
         <v>1100000</v>
       </c>
       <c r="W15">
+        <v>1100000</v>
+      </c>
+      <c r="X15">
         <v>376000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>375100000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>375200000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>374500000</v>
-      </c>
-      <c r="AA15">
-        <v>300000</v>
       </c>
       <c r="AB15">
         <v>300000</v>
@@ -2108,1108 +2258,1138 @@
         <v>300000</v>
       </c>
       <c r="AD15">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="AE15">
         <v>400000</v>
       </c>
       <c r="AF15">
-        <v>1600000</v>
+        <v>400000</v>
       </c>
       <c r="AG15">
         <v>1600000</v>
       </c>
       <c r="AH15">
+        <v>1600000</v>
+      </c>
+      <c r="AI15">
         <v>600803000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>800670000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>701045000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>701400000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>84987000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>83599000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>92190000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>124500000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>123600000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>116600000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>88800000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>101200000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>94700000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>112600000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>117400000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>119100000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>119400000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>127900000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>168800000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>155200000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>177700000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>203500000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>184800000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>155700000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>166300000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>102000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>85300000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>117700000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>79500000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>66800000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>95800000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>81800000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>97800000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>79000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>98900000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>90800000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>88451000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>66737000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>97223000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>96400000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>83023000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>81946000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>82912000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1134000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1056000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>981000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>972000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>207400000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>223600000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>821000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>773000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>793000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>736000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>733000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>681000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>2676100000</v>
+      </c>
+      <c r="C18">
         <v>2654900000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2580700000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2397200000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2447100000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2885000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2996500000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2547900000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2304300000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2215000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1785200000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2170200000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2132700000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2122600000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2052900000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1649200000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2451300000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2543200000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2340800000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2184700000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1579400000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1433700000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1713900000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1583300000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1635200000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1513500000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1100000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1069600000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1008400000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1081300000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>984700000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>925700000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1045600000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1555397000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1711793000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1556204000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1609900000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>893201000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>815559000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>815014000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>4575000000</v>
+      </c>
+      <c r="C19">
         <v>4750300000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4834200000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4908800000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4795900000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4950000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4710200000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4110300000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3636200000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3586000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3763800000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4591500000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3203400000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3545400000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3569400000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3554800000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2806400000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2468300000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2668200000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2489400000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>3541500000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>3559700000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3020600000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2862100000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2635500000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2598000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2834600000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2866200000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2813200000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2853000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2759200000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2757000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2654600000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2023178000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1542891000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1522570000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1431400000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1784539000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1698951000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1596050000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>127900000</v>
+      </c>
+      <c r="C20">
         <v>165300000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>176000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>187800000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>193400000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>221600000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>227100000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>224800000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>228600000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>189400000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>187300000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>187900000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>198800000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>176000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>184800000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>186100000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>190200000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>171000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>176800000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>190500000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>272000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>285000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>296500000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>288800000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>288400000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>503600000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>518500000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>530000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>262500000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>369900000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>382000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>363700000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>347800000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>275534000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>184949000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>184201000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>246600000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>250701000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>250373000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>246707000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>409800000</v>
+      </c>
+      <c r="C21">
         <v>442400000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>432100000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>421700000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>424200000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>452200000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>436800000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>314800000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>299100000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>253500000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>270700000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>271400000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>260400000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>231200000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>237500000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>255800000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>255600000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>203100000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>205000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>243300000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>241200000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>77700000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>20600000</v>
+      </c>
+      <c r="C22">
         <v>20200000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>19900000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>19500000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>19000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>443300000</v>
+      </c>
+      <c r="C23">
         <v>436100000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>421200000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>454600000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>438700000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>408600000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>410200000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>414000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>407200000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>404800000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>396600000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>411000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>424000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>397300000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>386200000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>391800000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>277200000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>303700000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>306900000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>327900000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>326400000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>221100000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>226000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>222100000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>138800000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>95900000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>79078000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>71366000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>45720000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>42158000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>39123000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>5576600000</v>
+      </c>
+      <c r="C24">
         <v>5814300000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>5883400000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5992400000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5871200000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>6032400000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5784300000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>5063899000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>4571100000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4433700000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4618400000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>5461800000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>4086600000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>4349900000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>4377900000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>4388500000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3529400000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3146100000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>3356900000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>3251100000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>4381100000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>4065800000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>3543100000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3373000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3140400000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>3101600000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>3353100000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>3396200000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>3171600000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>3222900000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>3141200000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>3120700000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>3002400000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2298712000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1806918000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1778137000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1678000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>2080960000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1991482000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1881880000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>8252700000</v>
+      </c>
+      <c r="C25">
         <v>8469200000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>8464100000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>8389600000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>8318300000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8917400000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>8780800000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7611800000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6875400000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>6648700000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>6403600000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>7632000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>6219300000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>6472500000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>6430800000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>6037700000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5980700000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>5689300000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>5697700000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5435800000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5960500000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>5499500000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>5257000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>4956300000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4775600000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>4615100000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>4453100000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>4465800000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4180000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4304200000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>4125900000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>4046400000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>4048000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>3854109000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>3518711000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>3334341000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>3287900000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>2974161000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>2807041000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>2696894000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2650400000</v>
+      </c>
+      <c r="C26">
         <v>2565100000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2477800000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2438500000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2409000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2289500000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2198900000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2105700000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2068100000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1938100000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1834500000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1720600000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1683300000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1585600000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1541800000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1485200000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1433200000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1410100000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1326200000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1282400000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1249000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1187800000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1114200000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1056700000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1020900000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>972200000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>890200000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>814500000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>783300000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>745900000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>729600000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>688800000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>659400000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>635661000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>584426000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>514522000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>489800000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>461936000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>434236000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>385935000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>600000</v>
@@ -3236,7 +3416,7 @@
         <v>600000</v>
       </c>
       <c r="J27">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="K27">
         <v>300000</v>
@@ -3308,1053 +3488,1074 @@
         <v>300000</v>
       </c>
       <c r="AH27">
+        <v>300000</v>
+      </c>
+      <c r="AI27">
         <v>312000</v>
-      </c>
-      <c r="AI27">
-        <v>157000</v>
       </c>
       <c r="AJ27">
         <v>157000</v>
       </c>
       <c r="AK27">
+        <v>157000</v>
+      </c>
+      <c r="AL27">
         <v>300000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>158000</v>
-      </c>
-      <c r="AM27">
-        <v>160000</v>
       </c>
       <c r="AN27">
         <v>160000</v>
       </c>
+      <c r="AO27">
+        <v>160000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>4979400000</v>
+      </c>
+      <c r="C28">
         <v>4775100000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4553800000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4391500000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>4278900000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4080600000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3916400000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3807100000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3705400000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3587100000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3419400000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3248500000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3348400000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3158700000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>3104600000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>3142100000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3028700000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2935800000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2723300000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2770900000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2941500000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3165300000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3101400000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>3049500000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>3122700000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>3032800000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2972900000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2868800000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>2804400000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2700700000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2591300000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>2532300000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2453500000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>2437281000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>2444843000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2430310000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2424400000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>2315841000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>2302541000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>2261073000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>79800000</v>
+      </c>
+      <c r="C29">
         <v>97500000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>92000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>101000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>100000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>89300000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>100100000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>117400000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>111100000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>96900000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>21000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>58500000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>70800000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>95600000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>101500000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>119700000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>55000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>7073500000</v>
+      </c>
+      <c r="C30">
         <v>6628700000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6522000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6484000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>6360100000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>6008700000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5778300000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5521701000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5451900000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5105200000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4800300000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4445700000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4596200000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>4211100000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>4203200000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>4170400000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4064200000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>4053300000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3812600000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3967900000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4043400000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>4109300000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3915900000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>3751100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3723100000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>3754700000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3573900000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>3424200000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>3278400000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>3181400000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>3102800000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>2979200000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2937900000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>2997660000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>2998589000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>2895862000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2880100000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>2666520000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>2597260000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>2517067000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>7073500000</v>
+      </c>
+      <c r="C31">
         <v>6628700000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>6522000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6484000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>6360100000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>6008700000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5778300000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>5521700000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5451900000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>5105200000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>4800300000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4445700000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>4596200000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>4211100000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>4203200000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>4170400000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>4064200000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>4053300000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3812600000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3967900000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4043400000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>4109300000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3915900000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>3751100000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>3723100000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>3754700000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>3573900000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>3424200000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3278400000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>3181400000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>3102800000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>2979200000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>2937900000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>2997660000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>2998589000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>2895862000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>2880100000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>2666520000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>2597260000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>2517067000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>15326200000</v>
+      </c>
+      <c r="C32">
         <v>15097900000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>14986100000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>14873600000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>14678400000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>14926100000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>14559100000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>13133500000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>12327300000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>11753900000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>11203900000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>12077700000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>10815500000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>10683600000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>10634000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>10208100000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>10044900000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>9742600000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>9510300000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>9403700000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>10003900000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>9608800000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>9172900000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>8707400000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>8498700000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>8369800000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>8027000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>7890000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>7458400000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>7485600000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>7228700000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>7025600000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>6985900000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>6851769000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>6517300000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>6230203000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>6168000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>5640681000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>5404301000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>5213961000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>595000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>595300000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>597100000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>599100000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>597600000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>599300000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>599200000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>598700000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>598310000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>596754000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>591788000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>595800000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>592984000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>594896000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>597464000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>597000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>602654000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>600704000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>604200000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>611400000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>610000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>610400000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>610800000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>616600000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>617400000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>617200000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>615400000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>616000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>616400000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>618000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>618800000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>619800000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>624000000</v>
-      </c>
-      <c r="AI33">
-        <v>628000000</v>
       </c>
       <c r="AJ33">
         <v>628000000</v>
       </c>
       <c r="AK33">
+        <v>628000000</v>
+      </c>
+      <c r="AL33">
         <v>632824000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>632000000</v>
-      </c>
-      <c r="AM33">
-        <v>640000000</v>
       </c>
       <c r="AN33">
         <v>640000000</v>
       </c>
+      <c r="AO33">
+        <v>640000000</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>-106700200</v>
+      </c>
+      <c r="C34">
         <v>-462599600</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-504200200</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-603500000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-773599100</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-434300800</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-734200200</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>18400400</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>22299800</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-258500000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-482899900</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-828700200</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-712899900</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-1275101000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-1238700000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-978200700</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-436899900</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-521400400</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-788100600</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-659399400</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-487699700</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-356500000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-495199700</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-506999500</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-473000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-492300300</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-602200200</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-782899900</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>279500000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>169799800</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>76800300</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>76900200</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-5100100</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>103816200</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>502325900</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>408841100</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>402100100</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>694092300</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>645008800</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>597137900</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>3501200000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3527900000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>3632900000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3558500000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>3946200000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3993700000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2275500000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2128400000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2359000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>2452100000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2708800000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2698100000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>2962400000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2975200000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2573200000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2279000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>2238700000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2445500000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>2215000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1788900000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>2071200000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>2036500000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>1957500000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1837500000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1955600000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>2010200000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>2152900000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>1053100000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>1255700000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>1362400000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>1407500000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>1326600000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>1379364000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>899661000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>924162000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>940600000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>585945000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>639998000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>666338000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>4753200000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>4862300000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>4932500000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>4799900000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>5248700000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5236300000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4636700000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>3866500000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>3815200000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>3766100000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>5092400000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>3606700000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>3949100000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>3972500000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>3560800000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>3570700000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>3258500000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>3436600000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>3239300000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>3542600000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>3560800000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>3396600000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>3237200000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>3010700000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>2972500000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>2834900000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>2866500000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>2813500000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2853400000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>2759600000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>2758600000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>2656200000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>2623981000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>2343561000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>2223615000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>2132800000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1869526000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>1782550000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1688240000</v>
       </c>
     </row>
